--- a/leading_edge_jitter_high_pwr.xlsx
+++ b/leading_edge_jitter_high_pwr.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_F25DC773A252ABEACE02ECEE6B9863F45BDE58A1" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{F83D96CA-BB3D-4C12-B5A6-CDC80F51B7AB}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="11_F25DC773A252ABEACE02ECEE6B9863F45BDE58A1" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{138F7CDC-0489-4C7F-8AE9-0DE9AFAF4BC0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sim" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="cdet-3.4p_c1-10f-1p2VPA" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="13">
   <si>
     <t>ff_x</t>
   </si>
@@ -61,6 +62,9 @@
   </si>
   <si>
     <t>mea_y</t>
+  </si>
+  <si>
+    <t>mea_y_dac322</t>
   </si>
 </sst>
 </file>
@@ -385,9 +389,9 @@
       <selection activeCell="K2" sqref="K2:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>4.0000000000000003E-15</v>
       </c>
@@ -463,7 +467,7 @@
         <v>31.16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>5E-15</v>
       </c>
@@ -501,7 +505,7 @@
         <v>15.95</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5.9999999999999997E-15</v>
       </c>
@@ -539,7 +543,7 @@
         <v>11.68</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>8.0000000000000006E-15</v>
       </c>
@@ -577,7 +581,7 @@
         <v>10.53</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1E-14</v>
       </c>
@@ -615,7 +619,7 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1.1999999999999999E-14</v>
       </c>
@@ -653,7 +657,7 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1.4999999999999999E-14</v>
       </c>
@@ -691,7 +695,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2E-14</v>
       </c>
@@ -729,7 +733,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2.9999999999999998E-14</v>
       </c>
@@ -780,9 +784,9 @@
       <selection sqref="A1:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -820,7 +824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>4.0000000000000003E-15</v>
       </c>
@@ -858,7 +862,7 @@
         <v>31.16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>5E-15</v>
       </c>
@@ -896,7 +900,7 @@
         <v>15.95</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5.9999999999999997E-15</v>
       </c>
@@ -934,7 +938,7 @@
         <v>11.68</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>8.0000000000000006E-15</v>
       </c>
@@ -972,7 +976,7 @@
         <v>10.53</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1E-14</v>
       </c>
@@ -1010,7 +1014,7 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1.1999999999999999E-14</v>
       </c>
@@ -1048,7 +1052,7 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1.4999999999999999E-14</v>
       </c>
@@ -1086,7 +1090,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2E-14</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2.5000000000000001E-14</v>
       </c>
@@ -1162,7 +1166,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2.9999999999999998E-14</v>
       </c>
@@ -1207,9 +1211,9 @@
       <selection activeCell="I23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>4.0000000000000003E-15</v>
       </c>
@@ -1285,7 +1289,7 @@
         <v>31.16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>5E-15</v>
       </c>
@@ -1323,7 +1327,7 @@
         <v>15.95</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5.9999999999999997E-15</v>
       </c>
@@ -1361,7 +1365,7 @@
         <v>11.68</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>8.0000000000000006E-15</v>
       </c>
@@ -1399,7 +1403,7 @@
         <v>10.53</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1E-14</v>
       </c>
@@ -1437,7 +1441,7 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1.1999999999999999E-14</v>
       </c>
@@ -1475,7 +1479,7 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1.4999999999999999E-14</v>
       </c>
@@ -1513,7 +1517,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2E-14</v>
       </c>
@@ -1551,7 +1555,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2.5000000000000001E-14</v>
       </c>
@@ -1589,7 +1593,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2.9999999999999998E-14</v>
       </c>
@@ -1634,9 +1638,9 @@
       <selection sqref="A1:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1674,7 +1678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>4.0000000000000003E-15</v>
       </c>
@@ -1712,7 +1716,7 @@
         <v>31.16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>5E-15</v>
       </c>
@@ -1750,7 +1754,7 @@
         <v>15.95</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5.9999999999999997E-15</v>
       </c>
@@ -1788,7 +1792,7 @@
         <v>11.68</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>8.0000000000000006E-15</v>
       </c>
@@ -1826,7 +1830,7 @@
         <v>10.53</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1E-14</v>
       </c>
@@ -1864,7 +1868,7 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1.1999999999999999E-14</v>
       </c>
@@ -1902,7 +1906,7 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1.4999999999999999E-14</v>
       </c>
@@ -1940,7 +1944,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2E-14</v>
       </c>
@@ -1978,7 +1982,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2.5000000000000001E-14</v>
       </c>
@@ -2016,7 +2020,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2.9999999999999998E-14</v>
       </c>
@@ -2061,9 +2065,9 @@
       <selection sqref="A1:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2101,7 +2105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>4.0000000000000003E-15</v>
       </c>
@@ -2139,7 +2143,7 @@
         <v>31.16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>5E-15</v>
       </c>
@@ -2177,7 +2181,7 @@
         <v>15.95</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5.9999999999999997E-15</v>
       </c>
@@ -2215,7 +2219,7 @@
         <v>11.68</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>8.0000000000000006E-15</v>
       </c>
@@ -2253,7 +2257,7 @@
         <v>10.53</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1E-14</v>
       </c>
@@ -2291,7 +2295,7 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1.1999999999999999E-14</v>
       </c>
@@ -2329,7 +2333,7 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1.4999999999999999E-14</v>
       </c>
@@ -2367,7 +2371,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2E-14</v>
       </c>
@@ -2405,7 +2409,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2.5000000000000001E-14</v>
       </c>
@@ -2443,7 +2447,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2.9999999999999998E-14</v>
       </c>
@@ -2485,12 +2489,12 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J11"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2525,10 +2529,10 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>4.0000000000000003E-15</v>
       </c>
@@ -2560,13 +2564,13 @@
         <v>1.9856962551269999E-11</v>
       </c>
       <c r="K2" s="1">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="L2" s="1">
-        <v>31.16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>32.829058774201599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>5E-15</v>
       </c>
@@ -2598,13 +2602,13 @@
         <v>1.6346722783477399E-11</v>
       </c>
       <c r="K3" s="1">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="L3" s="1">
-        <v>15.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22.897421252184401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5.9999999999999997E-15</v>
       </c>
@@ -2636,13 +2640,13 @@
         <v>1.4340441662340201E-11</v>
       </c>
       <c r="K4" s="1">
-        <v>6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L4" s="1">
-        <v>11.68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>16.998776426554599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>8.0000000000000006E-15</v>
       </c>
@@ -2674,13 +2678,13 @@
         <v>1.2210638782647199E-11</v>
       </c>
       <c r="K5" s="1">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="L5" s="1">
-        <v>10.53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>15.1048303532343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1E-14</v>
       </c>
@@ -2712,13 +2716,13 @@
         <v>1.1131200789780901E-11</v>
       </c>
       <c r="K6" s="1">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="L6" s="1">
-        <v>6.49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11.845606780574901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1.1999999999999999E-14</v>
       </c>
@@ -2750,13 +2754,13 @@
         <v>1.0472231907933899E-11</v>
       </c>
       <c r="K7" s="1">
-        <v>15</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="L7" s="1">
-        <v>5.46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10.9488583879779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1.4999999999999999E-14</v>
       </c>
@@ -2788,13 +2792,13 @@
         <v>9.8279534193837202E-12</v>
       </c>
       <c r="K8" s="1">
-        <v>20</v>
+        <v>11.1</v>
       </c>
       <c r="L8" s="1">
-        <v>5.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10.133306469262401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2E-14</v>
       </c>
@@ -2826,13 +2830,13 @@
         <v>9.2240316163496892E-12</v>
       </c>
       <c r="K9" s="1">
-        <v>25</v>
+        <v>14.2</v>
       </c>
       <c r="L9" s="1">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9.0607725939898298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2.5000000000000001E-14</v>
       </c>
@@ -2864,13 +2868,13 @@
         <v>8.8646690900478794E-12</v>
       </c>
       <c r="K10" s="1">
-        <v>30</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="L10" s="1">
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8.5755699519042299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2.9999999999999998E-14</v>
       </c>
@@ -2900,6 +2904,12 @@
       </c>
       <c r="J11" s="1">
         <v>8.5810539172648607E-12</v>
+      </c>
+      <c r="K11" s="1">
+        <v>28.2</v>
+      </c>
+      <c r="L11">
+        <v>8.0597766718437498</v>
       </c>
     </row>
   </sheetData>
